--- a/CodeSystem-AgeRangesCS.xlsx
+++ b/CodeSystem-AgeRangesCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-06T11:14:20+00:00</t>
+    <t>2023-06-07T12:39:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
